--- a/model_lca/results/lca_results_old.xlsx
+++ b/model_lca/results/lca_results_old.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_building\building-model\model_lca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_building\building-model\model_lca\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="5510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,49 +62,49 @@
     <t>mfh12</t>
   </si>
   <si>
-    <t>sceanrio_heating</t>
+    <t>scenario_insulation</t>
+  </si>
+  <si>
+    <t>building 1 5.23903979162616</t>
+  </si>
+  <si>
+    <t>building 2 8.041367457485004</t>
+  </si>
+  <si>
+    <t>building 3 3.0912924409685627</t>
+  </si>
+  <si>
+    <t>building 4 3.488468376631697</t>
+  </si>
+  <si>
+    <t>building 5 2.313484273215065</t>
+  </si>
+  <si>
+    <t>building 6 8.497052581810957</t>
+  </si>
+  <si>
+    <t>building 7 3.8438555419302185</t>
+  </si>
+  <si>
+    <t>building 8 3.6139000112732993</t>
+  </si>
+  <si>
+    <t>building 9 2.800143124229621</t>
+  </si>
+  <si>
+    <t>building 10 3.717688459650607</t>
+  </si>
+  <si>
+    <t>building 11 4.174045922757305</t>
+  </si>
+  <si>
+    <t>building 12 5.230462846677869</t>
+  </si>
+  <si>
+    <t>scenario_heating</t>
   </si>
   <si>
     <t>base</t>
-  </si>
-  <si>
-    <t>scenario_insulation</t>
-  </si>
-  <si>
-    <t>building 1 5.23903979162616</t>
-  </si>
-  <si>
-    <t>building 2 8.041367457485004</t>
-  </si>
-  <si>
-    <t>building 3 3.0912924409685627</t>
-  </si>
-  <si>
-    <t>building 4 3.488468376631697</t>
-  </si>
-  <si>
-    <t>building 5 2.313484273215065</t>
-  </si>
-  <si>
-    <t>building 6 8.497052581810957</t>
-  </si>
-  <si>
-    <t>building 7 3.8438555419302185</t>
-  </si>
-  <si>
-    <t>building 8 3.6139000112732993</t>
-  </si>
-  <si>
-    <t>building 9 2.800143124229621</t>
-  </si>
-  <si>
-    <t>building 10 3.717688459650607</t>
-  </si>
-  <si>
-    <t>building 11 4.174045922757305</t>
-  </si>
-  <si>
-    <t>building 12 5.230462846677869</t>
   </si>
 </sst>
 </file>
@@ -120,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,9 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,13 +187,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -194,13 +215,77 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>LCA of buildings (construction and in-use)</a:t>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>Total</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t> emissions for the buildings for different scenarios </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t>[</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>kg CO2-eq / m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>/ year</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t>]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21750108114527458"/>
+          <c:y val="2.20125786163522E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -213,13 +298,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -238,9 +337,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2492958551242926E-2"/>
-          <c:y val="0.11663522012578616"/>
+          <c:y val="0.16694968553459119"/>
           <c:w val="0.85746373961988498"/>
-          <c:h val="0.68777274302976277"/>
+          <c:h val="0.63745827762095764"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -372,14 +471,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>sceanrio_heating</c:v>
+                  <c:v>scenario_heating</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -495,7 +594,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -664,6 +763,8 @@
         <c:axId val="447414112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -681,62 +782,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>kg CO2-eq / m2/ year</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -771,6 +816,7 @@
         <c:crossAx val="447417064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1406,15 +1452,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>517524</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1699,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E33"/>
+  <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1710,18 +1756,18 @@
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1781,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1749,145 +1795,491 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>5.1893250190462998</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>7.9963998437610497</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1">
         <v>3.03595969808184</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1">
         <v>3.4709363406241098</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="1">
         <v>2.28437916069994</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1">
         <v>8.4684990506725892</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="1">
         <v>3.5781753497420699</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1">
         <v>2.7362596968390598</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1">
         <v>4.1716641341421496</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="1">
         <v>5.1893250190462998</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B24" t="s">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B30" t="s">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
